--- a/CodeVS/data/output/tugboat_schedule_algorithm_ODR_007.xlsx
+++ b/CodeVS/data/output/tugboat_schedule_algorithm_ODR_007.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="195">
   <si>
     <t>ID</t>
   </si>
@@ -115,7 +115,7 @@
     <t>Travel To Carrier</t>
   </si>
   <si>
-    <t>Sea-Sea</t>
+    <t>Sea-Sea Empty Barges</t>
   </si>
   <si>
     <t>Start Order Carrier</t>
@@ -127,7 +127,7 @@
     <t>Appointment</t>
   </si>
   <si>
-    <t>Sea-River</t>
+    <t>Sea-River Load Barges</t>
   </si>
   <si>
     <t>Barge Release</t>
@@ -145,7 +145,7 @@
     <t>Customer Station</t>
   </si>
   <si>
-    <t>River-River</t>
+    <t>River-River Load Barges</t>
   </si>
   <si>
     <t>Loader-Customer</t>
@@ -280,9 +280,6 @@
     <t>ST_014 to ST_015</t>
   </si>
   <si>
-    <t>stop at ST_015</t>
-  </si>
-  <si>
     <t>ST_015 to ST_016</t>
   </si>
   <si>
@@ -340,9 +337,6 @@
     <t>ST_033 to ST_034</t>
   </si>
   <si>
-    <t>stop at ST_034</t>
-  </si>
-  <si>
     <t>ST_034 to ST_035</t>
   </si>
   <si>
@@ -400,9 +394,6 @@
     <t>Change Barge - B_089 - (ST_014 to ST_014)</t>
   </si>
   <si>
-    <t>stop at ST_022</t>
-  </si>
-  <si>
     <t>ld1 - B_089</t>
   </si>
   <si>
@@ -421,9 +412,6 @@
     <t>release_point</t>
   </si>
   <si>
-    <t>water_level_point</t>
-  </si>
-  <si>
     <t>B_096,B_013,B_089</t>
   </si>
   <si>
@@ -463,10 +451,10 @@
     <t>B_049,B_081,B_086,B_096</t>
   </si>
   <si>
-    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001D4A2B031A0&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001D4A2A24E90&gt;], 'exit_datetime': datetime.datetime(2025, 1, 26, 8, 30)}</t>
-  </si>
-  <si>
-    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001D4A2B031A0&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001D4A2B20230&gt;], 'exit_datetime': datetime.datetime(2025, 1, 26, 8, 30)}</t>
+    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001B745383350&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001B7451C36B0&gt;], 'exit_datetime': datetime.datetime(2025, 1, 26, 8, 30)}</t>
+  </si>
+  <si>
+    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001B745383350&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001B742D60DD0&gt;], 'exit_datetime': datetime.datetime(2025, 1, 26, 8, 30)}</t>
   </si>
   <si>
     <t>ST_001</t>
@@ -972,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X140"/>
+  <dimension ref="A1:X137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -1111,13 +1099,13 @@
         <v>28</v>
       </c>
       <c r="V2" t="s">
+        <v>189</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" t="s">
         <v>193</v>
-      </c>
-      <c r="W2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1152,13 +1140,13 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N3">
         <v>1200</v>
@@ -1179,19 +1167,19 @@
         <v>45683.36111111111</v>
       </c>
       <c r="T3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="U3" t="s">
         <v>28</v>
       </c>
       <c r="V3" t="s">
+        <v>189</v>
+      </c>
+      <c r="W3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" t="s">
         <v>193</v>
-      </c>
-      <c r="W3" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1226,13 +1214,13 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N4">
         <v>400</v>
@@ -1253,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V4" t="s">
+        <v>189</v>
+      </c>
+      <c r="W4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" t="s">
         <v>193</v>
-      </c>
-      <c r="W4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1297,13 +1285,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N5">
         <v>800</v>
@@ -1324,16 +1312,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V5" t="s">
+        <v>189</v>
+      </c>
+      <c r="W5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" t="s">
         <v>193</v>
-      </c>
-      <c r="W5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1368,13 +1356,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
         <v>132</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>136</v>
       </c>
       <c r="N6">
         <v>1200</v>
@@ -1395,16 +1383,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V6" t="s">
+        <v>189</v>
+      </c>
+      <c r="W6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" t="s">
         <v>193</v>
-      </c>
-      <c r="W6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X6" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1439,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1466,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V7" t="s">
+        <v>189</v>
+      </c>
+      <c r="W7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7" t="s">
         <v>193</v>
-      </c>
-      <c r="W7" t="s">
-        <v>26</v>
-      </c>
-      <c r="X7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1510,14 +1498,14 @@
         <v>9.20655737704918</v>
       </c>
       <c r="K8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
         <v>132</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>136</v>
-      </c>
       <c r="N8">
         <v>0</v>
       </c>
@@ -1537,16 +1525,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V8" t="s">
+        <v>189</v>
+      </c>
+      <c r="W8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" t="s">
         <v>193</v>
-      </c>
-      <c r="W8" t="s">
-        <v>26</v>
-      </c>
-      <c r="X8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1581,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N9">
         <v>8400</v>
@@ -1608,16 +1596,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V9" t="s">
+        <v>189</v>
+      </c>
+      <c r="W9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9" t="s">
         <v>193</v>
-      </c>
-      <c r="W9" t="s">
-        <v>26</v>
-      </c>
-      <c r="X9" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1652,13 +1640,13 @@
         <v>280</v>
       </c>
       <c r="K10" t="s">
+        <v>130</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
         <v>133</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10" t="s">
-        <v>137</v>
       </c>
       <c r="N10">
         <v>3150</v>
@@ -1679,16 +1667,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V10" t="s">
+        <v>189</v>
+      </c>
+      <c r="W10" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10" t="s">
         <v>193</v>
-      </c>
-      <c r="W10" t="s">
-        <v>26</v>
-      </c>
-      <c r="X10" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1723,13 +1711,13 @@
         <v>260</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N11">
         <v>3150</v>
@@ -1750,16 +1738,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V11" t="s">
+        <v>189</v>
+      </c>
+      <c r="W11" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11" t="s">
         <v>193</v>
-      </c>
-      <c r="W11" t="s">
-        <v>26</v>
-      </c>
-      <c r="X11" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1794,13 +1782,13 @@
         <v>250</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N12">
         <v>2100</v>
@@ -1821,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V12" t="s">
+        <v>189</v>
+      </c>
+      <c r="W12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12" t="s">
         <v>193</v>
-      </c>
-      <c r="W12" t="s">
-        <v>26</v>
-      </c>
-      <c r="X12" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1865,13 +1853,13 @@
         <v>6.452459016393442</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N13">
         <v>8400</v>
@@ -1892,16 +1880,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V13" t="s">
+        <v>189</v>
+      </c>
+      <c r="W13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13" t="s">
         <v>193</v>
-      </c>
-      <c r="W13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X13" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1936,13 +1924,13 @@
         <v>6.452459016393442</v>
       </c>
       <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
         <v>132</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>136</v>
       </c>
       <c r="N14">
         <v>8400</v>
@@ -1963,16 +1951,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V14" t="s">
+        <v>189</v>
+      </c>
+      <c r="W14" t="s">
+        <v>26</v>
+      </c>
+      <c r="X14" t="s">
         <v>193</v>
-      </c>
-      <c r="W14" t="s">
-        <v>26</v>
-      </c>
-      <c r="X14" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -2007,13 +1995,13 @@
         <v>6.452459016393442</v>
       </c>
       <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
         <v>132</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
-        <v>136</v>
       </c>
       <c r="N15">
         <v>8400</v>
@@ -2034,16 +2022,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="V15" t="s">
+        <v>189</v>
+      </c>
+      <c r="W15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15" t="s">
         <v>193</v>
-      </c>
-      <c r="W15" t="s">
-        <v>26</v>
-      </c>
-      <c r="X15" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -2078,13 +2066,13 @@
         <v>6.452459016393442</v>
       </c>
       <c r="K16" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
         <v>132</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>136</v>
       </c>
       <c r="N16">
         <v>8400</v>
@@ -2105,16 +2093,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V16" t="s">
+        <v>189</v>
+      </c>
+      <c r="W16" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16" t="s">
         <v>193</v>
-      </c>
-      <c r="W16" t="s">
-        <v>26</v>
-      </c>
-      <c r="X16" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -2149,13 +2137,13 @@
         <v>6.452459016393442</v>
       </c>
       <c r="K17" t="s">
+        <v>129</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
         <v>132</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17" t="s">
-        <v>136</v>
       </c>
       <c r="N17">
         <v>8400</v>
@@ -2176,16 +2164,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="V17" t="s">
+        <v>189</v>
+      </c>
+      <c r="W17" t="s">
+        <v>26</v>
+      </c>
+      <c r="X17" t="s">
         <v>193</v>
-      </c>
-      <c r="W17" t="s">
-        <v>26</v>
-      </c>
-      <c r="X17" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -2220,13 +2208,13 @@
         <v>6.452459016393442</v>
       </c>
       <c r="K18" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
         <v>132</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
-        <v>136</v>
       </c>
       <c r="N18">
         <v>8400</v>
@@ -2247,16 +2235,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="V18" t="s">
+        <v>189</v>
+      </c>
+      <c r="W18" t="s">
+        <v>26</v>
+      </c>
+      <c r="X18" t="s">
         <v>193</v>
-      </c>
-      <c r="W18" t="s">
-        <v>26</v>
-      </c>
-      <c r="X18" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -2291,13 +2279,13 @@
         <v>6.452459016393442</v>
       </c>
       <c r="K19" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
         <v>132</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
-        <v>136</v>
       </c>
       <c r="N19">
         <v>8400</v>
@@ -2318,16 +2306,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="V19" t="s">
+        <v>189</v>
+      </c>
+      <c r="W19" t="s">
+        <v>26</v>
+      </c>
+      <c r="X19" t="s">
         <v>193</v>
-      </c>
-      <c r="W19" t="s">
-        <v>26</v>
-      </c>
-      <c r="X19" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -2362,13 +2350,13 @@
         <v>6.452459016393442</v>
       </c>
       <c r="K20" t="s">
+        <v>129</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
         <v>132</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>136</v>
       </c>
       <c r="N20">
         <v>8400</v>
@@ -2389,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="V20" t="s">
+        <v>189</v>
+      </c>
+      <c r="W20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X20" t="s">
         <v>193</v>
-      </c>
-      <c r="W20" t="s">
-        <v>26</v>
-      </c>
-      <c r="X20" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -2433,13 +2421,13 @@
         <v>6.452459016393442</v>
       </c>
       <c r="K21" t="s">
+        <v>129</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
         <v>132</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21" t="s">
-        <v>136</v>
       </c>
       <c r="N21">
         <v>8400</v>
@@ -2460,16 +2448,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="V21" t="s">
+        <v>189</v>
+      </c>
+      <c r="W21" t="s">
+        <v>26</v>
+      </c>
+      <c r="X21" t="s">
         <v>193</v>
-      </c>
-      <c r="W21" t="s">
-        <v>26</v>
-      </c>
-      <c r="X21" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -2504,13 +2492,13 @@
         <v>6.452459016393442</v>
       </c>
       <c r="K22" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
         <v>132</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
-        <v>136</v>
       </c>
       <c r="N22">
         <v>8400</v>
@@ -2531,16 +2519,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="V22" t="s">
+        <v>189</v>
+      </c>
+      <c r="W22" t="s">
+        <v>26</v>
+      </c>
+      <c r="X22" t="s">
         <v>193</v>
-      </c>
-      <c r="W22" t="s">
-        <v>26</v>
-      </c>
-      <c r="X22" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -2575,13 +2563,13 @@
         <v>6.452459016393442</v>
       </c>
       <c r="K23" t="s">
+        <v>129</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
         <v>132</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
-        <v>136</v>
       </c>
       <c r="N23">
         <v>8400</v>
@@ -2602,16 +2590,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="V23" t="s">
+        <v>189</v>
+      </c>
+      <c r="W23" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23" t="s">
         <v>193</v>
-      </c>
-      <c r="W23" t="s">
-        <v>26</v>
-      </c>
-      <c r="X23" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -2646,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2673,13 +2661,13 @@
         <v>28</v>
       </c>
       <c r="V24" t="s">
+        <v>189</v>
+      </c>
+      <c r="W24" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24" t="s">
         <v>193</v>
-      </c>
-      <c r="W24" t="s">
-        <v>26</v>
-      </c>
-      <c r="X24" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -2714,13 +2702,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N25">
         <v>5250</v>
@@ -2744,13 +2732,13 @@
         <v>28</v>
       </c>
       <c r="V25" t="s">
+        <v>189</v>
+      </c>
+      <c r="W25" t="s">
+        <v>26</v>
+      </c>
+      <c r="X25" t="s">
         <v>193</v>
-      </c>
-      <c r="W25" t="s">
-        <v>26</v>
-      </c>
-      <c r="X25" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2785,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N26">
         <v>3150</v>
@@ -2815,13 +2803,13 @@
         <v>28</v>
       </c>
       <c r="V26" t="s">
+        <v>189</v>
+      </c>
+      <c r="W26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X26" t="s">
         <v>193</v>
-      </c>
-      <c r="W26" t="s">
-        <v>26</v>
-      </c>
-      <c r="X26" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2856,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -2883,13 +2871,13 @@
         <v>28</v>
       </c>
       <c r="V27" t="s">
+        <v>189</v>
+      </c>
+      <c r="W27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X27" t="s">
         <v>193</v>
-      </c>
-      <c r="W27" t="s">
-        <v>26</v>
-      </c>
-      <c r="X27" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2924,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -2951,13 +2939,13 @@
         <v>28</v>
       </c>
       <c r="V28" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W28" t="s">
         <v>26</v>
       </c>
       <c r="X28" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -2992,13 +2980,13 @@
         <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N29">
         <v>1200</v>
@@ -3019,19 +3007,19 @@
         <v>45683.36111111111</v>
       </c>
       <c r="T29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="U29" t="s">
         <v>28</v>
       </c>
       <c r="V29" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W29" t="s">
         <v>26</v>
       </c>
       <c r="X29" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -3066,13 +3054,13 @@
         <v>12</v>
       </c>
       <c r="K30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N30">
         <v>400</v>
@@ -3093,16 +3081,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V30" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W30" t="s">
         <v>26</v>
       </c>
       <c r="X30" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -3137,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N31">
         <v>800</v>
@@ -3164,16 +3152,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V31" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W31" t="s">
         <v>26</v>
       </c>
       <c r="X31" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -3208,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N32">
         <v>1200</v>
@@ -3235,16 +3223,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V32" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W32" t="s">
         <v>26</v>
       </c>
       <c r="X32" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -3279,13 +3267,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3306,16 +3294,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W33" t="s">
         <v>26</v>
       </c>
       <c r="X33" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -3350,13 +3338,13 @@
         <v>9.720930232558139</v>
       </c>
       <c r="K34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3377,16 +3365,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V34" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W34" t="s">
         <v>26</v>
       </c>
       <c r="X34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3421,13 +3409,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N35">
         <v>7550</v>
@@ -3448,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W35" t="s">
         <v>26</v>
       </c>
       <c r="X35" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -3492,13 +3480,13 @@
         <v>240</v>
       </c>
       <c r="K36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N36">
         <v>3150</v>
@@ -3519,16 +3507,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W36" t="s">
         <v>26</v>
       </c>
       <c r="X36" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -3563,13 +3551,13 @@
         <v>240</v>
       </c>
       <c r="K37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N37">
         <v>2250</v>
@@ -3590,16 +3578,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V37" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W37" t="s">
         <v>26</v>
       </c>
       <c r="X37" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3634,13 +3622,13 @@
         <v>200</v>
       </c>
       <c r="K38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N38">
         <v>2150</v>
@@ -3661,16 +3649,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V38" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W38" t="s">
         <v>26</v>
       </c>
       <c r="X38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3705,13 +3693,13 @@
         <v>7.965116279069767</v>
       </c>
       <c r="K39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N39">
         <v>7550</v>
@@ -3732,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V39" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W39" t="s">
         <v>26</v>
       </c>
       <c r="X39" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -3776,13 +3764,13 @@
         <v>7.965116279069767</v>
       </c>
       <c r="K40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N40">
         <v>7550</v>
@@ -3803,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V40" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W40" t="s">
         <v>26</v>
       </c>
       <c r="X40" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -3847,13 +3835,13 @@
         <v>7.965116279069767</v>
       </c>
       <c r="K41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N41">
         <v>7550</v>
@@ -3874,16 +3862,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="V41" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W41" t="s">
         <v>26</v>
       </c>
       <c r="X41" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -3918,13 +3906,13 @@
         <v>7.965116279069767</v>
       </c>
       <c r="K42" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N42">
         <v>7550</v>
@@ -3945,16 +3933,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V42" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W42" t="s">
         <v>26</v>
       </c>
       <c r="X42" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3989,13 +3977,13 @@
         <v>7.965116279069767</v>
       </c>
       <c r="K43" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N43">
         <v>7550</v>
@@ -4016,16 +4004,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="V43" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W43" t="s">
         <v>26</v>
       </c>
       <c r="X43" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -4060,13 +4048,13 @@
         <v>7.965116279069767</v>
       </c>
       <c r="K44" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N44">
         <v>7550</v>
@@ -4087,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="V44" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W44" t="s">
         <v>26</v>
       </c>
       <c r="X44" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -4131,13 +4119,13 @@
         <v>7.965116279069767</v>
       </c>
       <c r="K45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N45">
         <v>7550</v>
@@ -4158,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="V45" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W45" t="s">
         <v>26</v>
       </c>
       <c r="X45" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -4202,13 +4190,13 @@
         <v>7.965116279069767</v>
       </c>
       <c r="K46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N46">
         <v>7550</v>
@@ -4229,16 +4217,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="V46" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W46" t="s">
         <v>26</v>
       </c>
       <c r="X46" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -4273,13 +4261,13 @@
         <v>7.965116279069767</v>
       </c>
       <c r="K47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N47">
         <v>7550</v>
@@ -4300,16 +4288,16 @@
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="V47" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W47" t="s">
         <v>26</v>
       </c>
       <c r="X47" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -4344,13 +4332,13 @@
         <v>7.965116279069767</v>
       </c>
       <c r="K48" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N48">
         <v>7550</v>
@@ -4371,16 +4359,16 @@
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="V48" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W48" t="s">
         <v>26</v>
       </c>
       <c r="X48" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -4415,13 +4403,13 @@
         <v>7.965116279069767</v>
       </c>
       <c r="K49" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N49">
         <v>7550</v>
@@ -4442,16 +4430,16 @@
         <v>0</v>
       </c>
       <c r="U49" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="V49" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W49" t="s">
         <v>26</v>
       </c>
       <c r="X49" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -4486,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -4513,13 +4501,13 @@
         <v>28</v>
       </c>
       <c r="V50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W50" t="s">
         <v>26</v>
       </c>
       <c r="X50" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -4554,13 +4542,13 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N51">
         <v>5300</v>
@@ -4584,13 +4572,13 @@
         <v>28</v>
       </c>
       <c r="V51" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W51" t="s">
         <v>26</v>
       </c>
       <c r="X51" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -4625,13 +4613,13 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N52">
         <v>2150</v>
@@ -4655,13 +4643,13 @@
         <v>28</v>
       </c>
       <c r="V52" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W52" t="s">
         <v>26</v>
       </c>
       <c r="X52" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -4696,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -4723,13 +4711,13 @@
         <v>28</v>
       </c>
       <c r="V53" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W53" t="s">
         <v>26</v>
       </c>
       <c r="X53" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -4764,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -4791,13 +4779,13 @@
         <v>28</v>
       </c>
       <c r="V54" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W54" t="s">
         <v>26</v>
       </c>
       <c r="X54" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -4832,13 +4820,13 @@
         <v>12</v>
       </c>
       <c r="K55" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N55">
         <v>10700</v>
@@ -4862,13 +4850,13 @@
         <v>28</v>
       </c>
       <c r="V55" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W55" t="s">
         <v>26</v>
       </c>
       <c r="X55" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -4903,13 +4891,13 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N56">
         <v>2250</v>
@@ -4933,13 +4921,13 @@
         <v>28</v>
       </c>
       <c r="V56" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W56" t="s">
         <v>26</v>
       </c>
       <c r="X56" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -4974,13 +4962,13 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N57">
         <v>5400</v>
@@ -5004,13 +4992,13 @@
         <v>28</v>
       </c>
       <c r="V57" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W57" t="s">
         <v>26</v>
       </c>
       <c r="X57" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -5045,13 +5033,13 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N58">
         <v>7550</v>
@@ -5075,13 +5063,13 @@
         <v>28</v>
       </c>
       <c r="V58" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W58" t="s">
         <v>26</v>
       </c>
       <c r="X58" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -5116,13 +5104,13 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N59">
         <v>10700</v>
@@ -5146,13 +5134,13 @@
         <v>28</v>
       </c>
       <c r="V59" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W59" t="s">
         <v>26</v>
       </c>
       <c r="X59" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -5187,13 +5175,13 @@
         <v>5.489795918367347</v>
       </c>
       <c r="K60" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N60">
         <v>10700</v>
@@ -5217,13 +5205,13 @@
         <v>28</v>
       </c>
       <c r="V60" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W60" t="s">
         <v>26</v>
       </c>
       <c r="X60" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -5258,13 +5246,13 @@
         <v>5.489795918367347</v>
       </c>
       <c r="K61" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L61">
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N61">
         <v>10700</v>
@@ -5288,13 +5276,13 @@
         <v>28</v>
       </c>
       <c r="V61" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W61" t="s">
         <v>26</v>
       </c>
       <c r="X61" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -5314,28 +5302,28 @@
         <v>45688.77535109459</v>
       </c>
       <c r="F62" s="2">
-        <v>45688.77535109459</v>
+        <v>45688.79053077242</v>
       </c>
       <c r="G62">
         <v>10.36431226777778</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>0.3643122676579925</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>5.489795918367347</v>
       </c>
       <c r="K62" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N62">
         <v>10700</v>
@@ -5356,16 +5344,16 @@
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="V62" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W62" t="s">
         <v>26</v>
       </c>
       <c r="X62" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -5379,13 +5367,13 @@
         <v>89</v>
       </c>
       <c r="D63" s="2">
-        <v>45688.77535109459</v>
+        <v>45688.79053077242</v>
       </c>
       <c r="E63" s="2">
-        <v>45688.77535109459</v>
+        <v>45688.79053077242</v>
       </c>
       <c r="F63" s="2">
-        <v>45688.79053077242</v>
+        <v>45688.80571045024</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5397,16 +5385,16 @@
         <v>0.3643122676579925</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>5.489795918367347</v>
       </c>
       <c r="K63" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N63">
         <v>10700</v>
@@ -5427,16 +5415,16 @@
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="V63" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W63" t="s">
         <v>26</v>
       </c>
       <c r="X63" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -5450,34 +5438,34 @@
         <v>90</v>
       </c>
       <c r="D64" s="2">
-        <v>45688.79053077242</v>
+        <v>45688.80571045024</v>
       </c>
       <c r="E64" s="2">
-        <v>45688.79053077242</v>
+        <v>45688.80571045024</v>
       </c>
       <c r="F64" s="2">
-        <v>45688.80571045024</v>
+        <v>45688.81330028916</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>0.3643122676579925</v>
+        <v>0.1821561338289963</v>
       </c>
       <c r="J64">
         <v>5.489795918367347</v>
       </c>
       <c r="K64" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L64">
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N64">
         <v>10700</v>
@@ -5498,16 +5486,16 @@
         <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="V64" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W64" t="s">
         <v>26</v>
       </c>
       <c r="X64" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -5521,34 +5509,34 @@
         <v>91</v>
       </c>
       <c r="D65" s="2">
-        <v>45688.80571045024</v>
+        <v>45688.81330028916</v>
       </c>
       <c r="E65" s="2">
-        <v>45688.80571045024</v>
+        <v>45688.81330028916</v>
       </c>
       <c r="F65" s="2">
-        <v>45688.81330028916</v>
+        <v>45688.84365964479</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>0.1821561338289963</v>
+        <v>0.728624535315985</v>
       </c>
       <c r="J65">
         <v>5.489795918367347</v>
       </c>
       <c r="K65" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L65">
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N65">
         <v>10700</v>
@@ -5569,16 +5557,16 @@
         <v>0</v>
       </c>
       <c r="U65" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="V65" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W65" t="s">
         <v>26</v>
       </c>
       <c r="X65" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -5592,34 +5580,34 @@
         <v>92</v>
       </c>
       <c r="D66" s="2">
-        <v>45688.81330028916</v>
+        <v>45688.84365964479</v>
       </c>
       <c r="E66" s="2">
-        <v>45688.81330028916</v>
+        <v>45688.84365964479</v>
       </c>
       <c r="F66" s="2">
-        <v>45688.84365964479</v>
+        <v>45688.85883932262</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>0.728624535315985</v>
+        <v>0.3643122676579925</v>
       </c>
       <c r="J66">
         <v>5.489795918367347</v>
       </c>
       <c r="K66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L66">
         <v>1</v>
       </c>
       <c r="M66" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N66">
         <v>10700</v>
@@ -5640,16 +5628,16 @@
         <v>0</v>
       </c>
       <c r="U66" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="V66" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W66" t="s">
         <v>26</v>
       </c>
       <c r="X66" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -5663,34 +5651,34 @@
         <v>93</v>
       </c>
       <c r="D67" s="2">
-        <v>45688.84365964479</v>
+        <v>45688.85883932262</v>
       </c>
       <c r="E67" s="2">
-        <v>45688.84365964479</v>
+        <v>45688.85883932262</v>
       </c>
       <c r="F67" s="2">
-        <v>45688.85883932262</v>
+        <v>45688.88160883934</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>0.3643122676579925</v>
+        <v>0.5464684014869888</v>
       </c>
       <c r="J67">
         <v>5.489795918367347</v>
       </c>
       <c r="K67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L67">
         <v>1</v>
       </c>
       <c r="M67" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N67">
         <v>10700</v>
@@ -5711,16 +5699,16 @@
         <v>0</v>
       </c>
       <c r="U67" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="V67" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W67" t="s">
         <v>26</v>
       </c>
       <c r="X67" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -5734,34 +5722,34 @@
         <v>94</v>
       </c>
       <c r="D68" s="2">
-        <v>45688.85883932262</v>
+        <v>45688.88160883934</v>
       </c>
       <c r="E68" s="2">
-        <v>45688.85883932262</v>
+        <v>45688.88160883934</v>
       </c>
       <c r="F68" s="2">
-        <v>45688.88160883934</v>
+        <v>45688.91196819497</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I68">
-        <v>0.5464684014869888</v>
+        <v>0.728624535315985</v>
       </c>
       <c r="J68">
         <v>5.489795918367347</v>
       </c>
       <c r="K68" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L68">
         <v>1</v>
       </c>
       <c r="M68" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N68">
         <v>10700</v>
@@ -5782,16 +5770,16 @@
         <v>0</v>
       </c>
       <c r="U68" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V68" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W68" t="s">
         <v>26</v>
       </c>
       <c r="X68" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -5805,34 +5793,34 @@
         <v>95</v>
       </c>
       <c r="D69" s="2">
-        <v>45688.88160883934</v>
+        <v>45688.91196819497</v>
       </c>
       <c r="E69" s="2">
-        <v>45688.88160883934</v>
+        <v>45688.91196819497</v>
       </c>
       <c r="F69" s="2">
-        <v>45688.91196819497</v>
+        <v>45688.99545642298</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I69">
-        <v>0.728624535315985</v>
+        <v>2.003717472118959</v>
       </c>
       <c r="J69">
         <v>5.489795918367347</v>
       </c>
       <c r="K69" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L69">
         <v>1</v>
       </c>
       <c r="M69" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N69">
         <v>10700</v>
@@ -5853,16 +5841,16 @@
         <v>0</v>
       </c>
       <c r="U69" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="V69" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W69" t="s">
         <v>26</v>
       </c>
       <c r="X69" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -5876,34 +5864,34 @@
         <v>96</v>
       </c>
       <c r="D70" s="2">
-        <v>45688.91196819497</v>
+        <v>45688.99545642298</v>
       </c>
       <c r="E70" s="2">
-        <v>45688.91196819497</v>
+        <v>45688.99545642298</v>
       </c>
       <c r="F70" s="2">
-        <v>45688.99545642298</v>
+        <v>45689.0030462619</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>2.003717472118959</v>
+        <v>0.1821561338289963</v>
       </c>
       <c r="J70">
         <v>5.489795918367347</v>
       </c>
       <c r="K70" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L70">
         <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N70">
         <v>10700</v>
@@ -5924,16 +5912,16 @@
         <v>0</v>
       </c>
       <c r="U70" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="V70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W70" t="s">
         <v>26</v>
       </c>
       <c r="X70" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -5947,34 +5935,34 @@
         <v>97</v>
       </c>
       <c r="D71" s="2">
-        <v>45688.99545642298</v>
+        <v>45689.0030462619</v>
       </c>
       <c r="E71" s="2">
-        <v>45688.99545642298</v>
+        <v>45689.0030462619</v>
       </c>
       <c r="F71" s="2">
-        <v>45689.0030462619</v>
+        <v>45689.16243287899</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I71">
-        <v>0.1821561338289963</v>
+        <v>3.825278810408922</v>
       </c>
       <c r="J71">
         <v>5.489795918367347</v>
       </c>
       <c r="K71" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L71">
         <v>1</v>
       </c>
       <c r="M71" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N71">
         <v>10700</v>
@@ -5995,16 +5983,16 @@
         <v>0</v>
       </c>
       <c r="U71" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="V71" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W71" t="s">
         <v>26</v>
       </c>
       <c r="X71" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -6018,34 +6006,34 @@
         <v>98</v>
       </c>
       <c r="D72" s="2">
-        <v>45689.0030462619</v>
+        <v>45689.16243287899</v>
       </c>
       <c r="E72" s="2">
-        <v>45689.0030462619</v>
+        <v>45689.16243287899</v>
       </c>
       <c r="F72" s="2">
-        <v>45689.16243287899</v>
+        <v>45689.17761255681</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>3.825278810408922</v>
+        <v>0.3643122676579925</v>
       </c>
       <c r="J72">
         <v>5.489795918367347</v>
       </c>
       <c r="K72" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L72">
         <v>1</v>
       </c>
       <c r="M72" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N72">
         <v>10700</v>
@@ -6066,16 +6054,16 @@
         <v>0</v>
       </c>
       <c r="U72" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="V72" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W72" t="s">
         <v>26</v>
       </c>
       <c r="X72" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -6089,34 +6077,34 @@
         <v>99</v>
       </c>
       <c r="D73" s="2">
-        <v>45689.16243287899</v>
+        <v>45689.17761255681</v>
       </c>
       <c r="E73" s="2">
-        <v>45689.16243287899</v>
+        <v>45689.17761255681</v>
       </c>
       <c r="F73" s="2">
-        <v>45689.17761255681</v>
+        <v>45689.22315159027</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I73">
-        <v>0.3643122676579925</v>
+        <v>1.092936802973978</v>
       </c>
       <c r="J73">
         <v>5.489795918367347</v>
       </c>
       <c r="K73" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L73">
         <v>1</v>
       </c>
       <c r="M73" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N73">
         <v>10700</v>
@@ -6137,16 +6125,16 @@
         <v>0</v>
       </c>
       <c r="U73" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="V73" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W73" t="s">
         <v>26</v>
       </c>
       <c r="X73" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -6160,34 +6148,34 @@
         <v>100</v>
       </c>
       <c r="D74" s="2">
-        <v>45689.17761255681</v>
+        <v>45689.22315159027</v>
       </c>
       <c r="E74" s="2">
-        <v>45689.17761255681</v>
+        <v>45689.22315159027</v>
       </c>
       <c r="F74" s="2">
-        <v>45689.22315159027</v>
+        <v>45689.30663981829</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I74">
-        <v>1.092936802973978</v>
+        <v>2.003717472118959</v>
       </c>
       <c r="J74">
         <v>5.489795918367347</v>
       </c>
       <c r="K74" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L74">
         <v>1</v>
       </c>
       <c r="M74" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N74">
         <v>10700</v>
@@ -6208,16 +6196,16 @@
         <v>0</v>
       </c>
       <c r="U74" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="V74" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W74" t="s">
         <v>26</v>
       </c>
       <c r="X74" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -6231,34 +6219,34 @@
         <v>101</v>
       </c>
       <c r="D75" s="2">
-        <v>45689.22315159027</v>
+        <v>45689.30663981829</v>
       </c>
       <c r="E75" s="2">
-        <v>45689.22315159027</v>
+        <v>45689.30663981829</v>
       </c>
       <c r="F75" s="2">
-        <v>45689.30663981829</v>
+        <v>45689.32940933501</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>2.003717472118959</v>
+        <v>0.5464684014869888</v>
       </c>
       <c r="J75">
         <v>5.489795918367347</v>
       </c>
       <c r="K75" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L75">
         <v>1</v>
       </c>
       <c r="M75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N75">
         <v>10700</v>
@@ -6279,16 +6267,16 @@
         <v>0</v>
       </c>
       <c r="U75" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="V75" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W75" t="s">
         <v>26</v>
       </c>
       <c r="X75" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -6302,13 +6290,13 @@
         <v>102</v>
       </c>
       <c r="D76" s="2">
-        <v>45689.30663981829</v>
+        <v>45689.32940933501</v>
       </c>
       <c r="E76" s="2">
-        <v>45689.30663981829</v>
+        <v>45689.32940933501</v>
       </c>
       <c r="F76" s="2">
-        <v>45689.32940933501</v>
+        <v>45689.35217885174</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6323,13 +6311,13 @@
         <v>5.489795918367347</v>
       </c>
       <c r="K76" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L76">
         <v>1</v>
       </c>
       <c r="M76" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N76">
         <v>10700</v>
@@ -6350,16 +6338,16 @@
         <v>0</v>
       </c>
       <c r="U76" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="V76" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W76" t="s">
         <v>26</v>
       </c>
       <c r="X76" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -6373,34 +6361,34 @@
         <v>103</v>
       </c>
       <c r="D77" s="2">
-        <v>45689.32940933501</v>
+        <v>45689.35217885174</v>
       </c>
       <c r="E77" s="2">
-        <v>45689.32940933501</v>
+        <v>45689.35217885174</v>
       </c>
       <c r="F77" s="2">
-        <v>45689.35217885174</v>
+        <v>45689.45843659647</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I77">
-        <v>0.5464684014869888</v>
+        <v>2.550185873605948</v>
       </c>
       <c r="J77">
         <v>5.489795918367347</v>
       </c>
       <c r="K77" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="M77" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N77">
         <v>10700</v>
@@ -6421,16 +6409,16 @@
         <v>0</v>
       </c>
       <c r="U77" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="V77" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W77" t="s">
         <v>26</v>
       </c>
       <c r="X77" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -6444,34 +6432,34 @@
         <v>104</v>
       </c>
       <c r="D78" s="2">
-        <v>45689.35217885174</v>
+        <v>45689.45843659647</v>
       </c>
       <c r="E78" s="2">
-        <v>45689.35217885174</v>
+        <v>45689.45843659647</v>
       </c>
       <c r="F78" s="2">
-        <v>45689.45843659647</v>
+        <v>45689.47361627429</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>2.550185873605948</v>
+        <v>0.3643122676579925</v>
       </c>
       <c r="J78">
         <v>5.489795918367347</v>
       </c>
       <c r="K78" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L78">
         <v>1</v>
       </c>
       <c r="M78" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N78">
         <v>10700</v>
@@ -6492,16 +6480,16 @@
         <v>0</v>
       </c>
       <c r="U78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V78" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W78" t="s">
         <v>26</v>
       </c>
       <c r="X78" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -6515,13 +6503,13 @@
         <v>105</v>
       </c>
       <c r="D79" s="2">
-        <v>45689.45843659647</v>
+        <v>45689.47361627429</v>
       </c>
       <c r="E79" s="2">
-        <v>45689.45843659647</v>
+        <v>45689.47361627429</v>
       </c>
       <c r="F79" s="2">
-        <v>45689.47361627429</v>
+        <v>45689.48879595211</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -6536,13 +6524,13 @@
         <v>5.489795918367347</v>
       </c>
       <c r="K79" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="M79" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N79">
         <v>10700</v>
@@ -6563,16 +6551,16 @@
         <v>0</v>
       </c>
       <c r="U79" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="V79" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W79" t="s">
         <v>26</v>
       </c>
       <c r="X79" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -6586,13 +6574,13 @@
         <v>106</v>
       </c>
       <c r="D80" s="2">
-        <v>45689.47361627429</v>
+        <v>45689.48879595211</v>
       </c>
       <c r="E80" s="2">
-        <v>45689.47361627429</v>
+        <v>45689.48879595211</v>
       </c>
       <c r="F80" s="2">
-        <v>45689.48879595211</v>
+        <v>45689.50397562994</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -6607,13 +6595,13 @@
         <v>5.489795918367347</v>
       </c>
       <c r="K80" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L80">
         <v>1</v>
       </c>
       <c r="M80" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N80">
         <v>10700</v>
@@ -6634,16 +6622,16 @@
         <v>0</v>
       </c>
       <c r="U80" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="V80" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W80" t="s">
         <v>26</v>
       </c>
       <c r="X80" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -6657,34 +6645,34 @@
         <v>107</v>
       </c>
       <c r="D81" s="2">
-        <v>45689.48879595211</v>
+        <v>45689.50397562994</v>
       </c>
       <c r="E81" s="2">
-        <v>45689.48879595211</v>
+        <v>45690.0571045023</v>
       </c>
       <c r="F81" s="2">
-        <v>45689.50397562994</v>
+        <v>45690.11023337467</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>13.27509293666667</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I81">
-        <v>0.3643122676579925</v>
+        <v>1.275092936802974</v>
       </c>
       <c r="J81">
         <v>5.489795918367347</v>
       </c>
       <c r="K81" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L81">
         <v>1</v>
       </c>
       <c r="M81" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N81">
         <v>10700</v>
@@ -6705,16 +6693,16 @@
         <v>0</v>
       </c>
       <c r="U81" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V81" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W81" t="s">
         <v>26</v>
       </c>
       <c r="X81" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -6728,34 +6716,34 @@
         <v>108</v>
       </c>
       <c r="D82" s="2">
-        <v>45689.50397562994</v>
+        <v>45690.11023337467</v>
       </c>
       <c r="E82" s="2">
-        <v>45690.0571045023</v>
+        <v>45690.11023337467</v>
       </c>
       <c r="F82" s="2">
-        <v>45690.0571045023</v>
+        <v>45690.18613176376</v>
       </c>
       <c r="G82">
-        <v>13.27509293666667</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1.821561338289963</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>5.489795918367347</v>
       </c>
       <c r="K82" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
       <c r="M82" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N82">
         <v>10700</v>
@@ -6776,16 +6764,16 @@
         <v>0</v>
       </c>
       <c r="U82" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="V82" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W82" t="s">
         <v>26</v>
       </c>
       <c r="X82" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -6799,34 +6787,34 @@
         <v>109</v>
       </c>
       <c r="D83" s="2">
-        <v>45690.0571045023</v>
+        <v>45690.18613176376</v>
       </c>
       <c r="E83" s="2">
-        <v>45690.0571045023</v>
+        <v>45690.18613176376</v>
       </c>
       <c r="F83" s="2">
-        <v>45690.11023337467</v>
+        <v>45690.20131144158</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>1.275092936802974</v>
+        <v>0.3643122676579925</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>5.489795918367347</v>
       </c>
       <c r="K83" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L83">
         <v>1</v>
       </c>
       <c r="M83" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N83">
         <v>10700</v>
@@ -6847,16 +6835,16 @@
         <v>0</v>
       </c>
       <c r="U83" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="V83" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W83" t="s">
         <v>26</v>
       </c>
       <c r="X83" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -6870,34 +6858,34 @@
         <v>110</v>
       </c>
       <c r="D84" s="2">
-        <v>45690.11023337467</v>
+        <v>45690.20131144158</v>
       </c>
       <c r="E84" s="2">
-        <v>45690.11023337467</v>
+        <v>45690.20131144158</v>
       </c>
       <c r="F84" s="2">
-        <v>45690.18613176376</v>
+        <v>45690.22408095831</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>1.821561338289963</v>
+        <v>0.5464684014869888</v>
       </c>
       <c r="J84">
         <v>5.489795918367347</v>
       </c>
       <c r="K84" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L84">
         <v>1</v>
       </c>
       <c r="M84" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N84">
         <v>10700</v>
@@ -6918,16 +6906,16 @@
         <v>0</v>
       </c>
       <c r="U84" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V84" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W84" t="s">
         <v>26</v>
       </c>
       <c r="X84" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -6941,13 +6929,13 @@
         <v>111</v>
       </c>
       <c r="D85" s="2">
-        <v>45690.18613176376</v>
+        <v>45690.22408095831</v>
       </c>
       <c r="E85" s="2">
-        <v>45690.18613176376</v>
+        <v>45690.22408095831</v>
       </c>
       <c r="F85" s="2">
-        <v>45690.20131144158</v>
+        <v>45690.23926063613</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -6962,13 +6950,13 @@
         <v>5.489795918367347</v>
       </c>
       <c r="K85" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L85">
         <v>1</v>
       </c>
       <c r="M85" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N85">
         <v>10700</v>
@@ -6989,16 +6977,16 @@
         <v>0</v>
       </c>
       <c r="U85" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="V85" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W85" t="s">
         <v>26</v>
       </c>
       <c r="X85" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -7012,34 +7000,34 @@
         <v>112</v>
       </c>
       <c r="D86" s="2">
-        <v>45690.20131144158</v>
+        <v>45690.23926063613</v>
       </c>
       <c r="E86" s="2">
-        <v>45690.20131144158</v>
+        <v>45690.23926063613</v>
       </c>
       <c r="F86" s="2">
-        <v>45690.22408095831</v>
+        <v>45690.24685047504</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0.5464684014869888</v>
+        <v>0.1821561338289963</v>
       </c>
       <c r="J86">
         <v>5.489795918367347</v>
       </c>
       <c r="K86" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L86">
         <v>1</v>
       </c>
       <c r="M86" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N86">
         <v>10700</v>
@@ -7060,16 +7048,16 @@
         <v>0</v>
       </c>
       <c r="U86" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V86" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W86" t="s">
         <v>26</v>
       </c>
       <c r="X86" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -7083,34 +7071,34 @@
         <v>113</v>
       </c>
       <c r="D87" s="2">
-        <v>45690.22408095831</v>
+        <v>45690.24685047504</v>
       </c>
       <c r="E87" s="2">
-        <v>45690.22408095831</v>
+        <v>45690.24685047504</v>
       </c>
       <c r="F87" s="2">
-        <v>45690.23926063613</v>
+        <v>45690.25444031396</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>0.3643122676579925</v>
+        <v>0.1821561338289963</v>
       </c>
       <c r="J87">
         <v>5.489795918367347</v>
       </c>
       <c r="K87" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L87">
         <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N87">
         <v>10700</v>
@@ -7131,16 +7119,16 @@
         <v>0</v>
       </c>
       <c r="U87" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V87" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W87" t="s">
         <v>26</v>
       </c>
       <c r="X87" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -7154,34 +7142,34 @@
         <v>114</v>
       </c>
       <c r="D88" s="2">
-        <v>45690.23926063613</v>
+        <v>45690.25444031396</v>
       </c>
       <c r="E88" s="2">
-        <v>45690.23926063613</v>
+        <v>45690.25444031396</v>
       </c>
       <c r="F88" s="2">
-        <v>45690.24685047504</v>
+        <v>45690.26961999178</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0.1821561338289963</v>
+        <v>0.3643122676579925</v>
       </c>
       <c r="J88">
         <v>5.489795918367347</v>
       </c>
       <c r="K88" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L88">
         <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N88">
         <v>10700</v>
@@ -7202,16 +7190,16 @@
         <v>0</v>
       </c>
       <c r="U88" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="V88" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W88" t="s">
         <v>26</v>
       </c>
       <c r="X88" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -7225,13 +7213,13 @@
         <v>115</v>
       </c>
       <c r="D89" s="2">
-        <v>45690.24685047504</v>
+        <v>45690.26961999178</v>
       </c>
       <c r="E89" s="2">
-        <v>45690.24685047504</v>
+        <v>45690.26961999178</v>
       </c>
       <c r="F89" s="2">
-        <v>45690.25444031396</v>
+        <v>45690.2772098307</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -7246,13 +7234,13 @@
         <v>5.489795918367347</v>
       </c>
       <c r="K89" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L89">
         <v>1</v>
       </c>
       <c r="M89" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N89">
         <v>10700</v>
@@ -7273,16 +7261,16 @@
         <v>0</v>
       </c>
       <c r="U89" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="V89" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W89" t="s">
         <v>26</v>
       </c>
       <c r="X89" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -7296,13 +7284,13 @@
         <v>116</v>
       </c>
       <c r="D90" s="2">
-        <v>45690.25444031396</v>
+        <v>45690.2772098307</v>
       </c>
       <c r="E90" s="2">
-        <v>45690.25444031396</v>
+        <v>45690.2772098307</v>
       </c>
       <c r="F90" s="2">
-        <v>45690.26961999178</v>
+        <v>45690.29238950852</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -7317,13 +7305,13 @@
         <v>5.489795918367347</v>
       </c>
       <c r="K90" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L90">
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N90">
         <v>10700</v>
@@ -7344,16 +7332,16 @@
         <v>0</v>
       </c>
       <c r="U90" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V90" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W90" t="s">
         <v>26</v>
       </c>
       <c r="X90" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -7367,13 +7355,13 @@
         <v>117</v>
       </c>
       <c r="D91" s="2">
-        <v>45690.26961999178</v>
+        <v>45690.29238950852</v>
       </c>
       <c r="E91" s="2">
-        <v>45690.26961999178</v>
+        <v>45690.29238950852</v>
       </c>
       <c r="F91" s="2">
-        <v>45690.2772098307</v>
+        <v>45690.29997934743</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -7388,13 +7376,13 @@
         <v>5.489795918367347</v>
       </c>
       <c r="K91" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L91">
         <v>1</v>
       </c>
       <c r="M91" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N91">
         <v>10700</v>
@@ -7415,16 +7403,16 @@
         <v>0</v>
       </c>
       <c r="U91" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="V91" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W91" t="s">
         <v>26</v>
       </c>
       <c r="X91" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -7438,34 +7426,34 @@
         <v>118</v>
       </c>
       <c r="D92" s="2">
-        <v>45690.2772098307</v>
+        <v>45690.29997934743</v>
       </c>
       <c r="E92" s="2">
-        <v>45690.2772098307</v>
+        <v>45690.29997934743</v>
       </c>
       <c r="F92" s="2">
-        <v>45690.29238950852</v>
+        <v>45690.30756918634</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0.3643122676579925</v>
+        <v>0.1821561338289963</v>
       </c>
       <c r="J92">
         <v>5.489795918367347</v>
       </c>
       <c r="K92" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L92">
         <v>1</v>
       </c>
       <c r="M92" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N92">
         <v>10700</v>
@@ -7486,16 +7474,16 @@
         <v>0</v>
       </c>
       <c r="U92" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V92" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W92" t="s">
         <v>26</v>
       </c>
       <c r="X92" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -7509,34 +7497,34 @@
         <v>119</v>
       </c>
       <c r="D93" s="2">
-        <v>45690.29238950852</v>
+        <v>45690.30756918634</v>
       </c>
       <c r="E93" s="2">
-        <v>45690.29238950852</v>
+        <v>45690.30756918634</v>
       </c>
       <c r="F93" s="2">
-        <v>45690.29997934743</v>
+        <v>45690.32274886416</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>0.1821561338289963</v>
+        <v>0.3643122676579925</v>
       </c>
       <c r="J93">
         <v>5.489795918367347</v>
       </c>
       <c r="K93" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L93">
         <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N93">
         <v>10700</v>
@@ -7557,60 +7545,60 @@
         <v>0</v>
       </c>
       <c r="U93" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V93" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W93" t="s">
         <v>26</v>
       </c>
       <c r="X93" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C94" t="s">
         <v>120</v>
       </c>
       <c r="D94" s="2">
-        <v>45690.29997934743</v>
+        <v>45690.32274886416</v>
       </c>
       <c r="E94" s="2">
-        <v>45690.29997934743</v>
+        <v>45690.32274886416</v>
       </c>
       <c r="F94" s="2">
-        <v>45690.30756918634</v>
+        <v>45690.54149886416</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0.1821561338289963</v>
+        <v>5.25</v>
       </c>
       <c r="J94">
-        <v>5.489795918367347</v>
+        <v>600</v>
       </c>
       <c r="K94" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L94">
         <v>1</v>
       </c>
       <c r="M94" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="N94">
-        <v>10700</v>
+        <v>3150</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -7628,60 +7616,60 @@
         <v>0</v>
       </c>
       <c r="U94" t="s">
+        <v>29</v>
+      </c>
+      <c r="V94" t="s">
         <v>191</v>
       </c>
-      <c r="V94" t="s">
-        <v>195</v>
-      </c>
       <c r="W94" t="s">
         <v>26</v>
       </c>
       <c r="X94" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C95" t="s">
         <v>121</v>
       </c>
       <c r="D95" s="2">
-        <v>45690.30756918634</v>
+        <v>45690.54149886416</v>
       </c>
       <c r="E95" s="2">
-        <v>45690.30756918634</v>
+        <v>45690.54149886416</v>
       </c>
       <c r="F95" s="2">
-        <v>45690.32274886416</v>
+        <v>45690.76024886416</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0.3643122676579925</v>
+        <v>5.25</v>
       </c>
       <c r="J95">
-        <v>5.489795918367347</v>
+        <v>600</v>
       </c>
       <c r="K95" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L95">
         <v>1</v>
       </c>
       <c r="M95" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="N95">
-        <v>10700</v>
+        <v>3150</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -7699,16 +7687,16 @@
         <v>0</v>
       </c>
       <c r="U95" t="s">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="V95" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W95" t="s">
         <v>26</v>
       </c>
       <c r="X95" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -7722,13 +7710,13 @@
         <v>122</v>
       </c>
       <c r="D96" s="2">
-        <v>45690.32274886416</v>
+        <v>45690.76024886416</v>
       </c>
       <c r="E96" s="2">
-        <v>45690.32274886416</v>
+        <v>45690.76024886416</v>
       </c>
       <c r="F96" s="2">
-        <v>45690.54149886416</v>
+        <v>45690.91649886416</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -7737,22 +7725,22 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="J96">
         <v>600</v>
       </c>
       <c r="K96" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L96">
         <v>1</v>
       </c>
       <c r="M96" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="N96">
-        <v>3150</v>
+        <v>2250</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -7773,13 +7761,13 @@
         <v>29</v>
       </c>
       <c r="V96" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W96" t="s">
         <v>26</v>
       </c>
       <c r="X96" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -7793,13 +7781,13 @@
         <v>123</v>
       </c>
       <c r="D97" s="2">
-        <v>45690.54149886416</v>
+        <v>45690.91649886416</v>
       </c>
       <c r="E97" s="2">
-        <v>45690.54149886416</v>
+        <v>45690.91649886416</v>
       </c>
       <c r="F97" s="2">
-        <v>45690.76024886416</v>
+        <v>45691.06580441972</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -7808,22 +7796,22 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>5.25</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="J97">
         <v>600</v>
       </c>
       <c r="K97" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L97">
         <v>1</v>
       </c>
       <c r="M97" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="N97">
-        <v>3150</v>
+        <v>2150</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -7844,33 +7832,33 @@
         <v>29</v>
       </c>
       <c r="V97" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W97" t="s">
         <v>26</v>
       </c>
       <c r="X97" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B98" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C98" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D98" s="2">
-        <v>45690.76024886416</v>
+        <v>45687.25</v>
       </c>
       <c r="E98" s="2">
-        <v>45690.76024886416</v>
+        <v>45687.25</v>
       </c>
       <c r="F98" s="2">
-        <v>45690.91649886416</v>
+        <v>45687.25</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -7879,22 +7867,19 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L98">
         <v>1</v>
       </c>
-      <c r="M98" t="s">
-        <v>143</v>
-      </c>
       <c r="N98">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="O98">
         <v>0</v>
@@ -7912,36 +7897,36 @@
         <v>0</v>
       </c>
       <c r="U98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V98" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="W98" t="s">
         <v>26</v>
       </c>
       <c r="X98" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B99" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C99" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="D99" s="2">
-        <v>45690.91649886416</v>
+        <v>45687.25</v>
       </c>
       <c r="E99" s="2">
-        <v>45690.91649886416</v>
+        <v>45687.25</v>
       </c>
       <c r="F99" s="2">
-        <v>45691.06580441972</v>
+        <v>45687.27777777778</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -7950,22 +7935,22 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>3.583333333333333</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="K99" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L99">
         <v>1</v>
       </c>
       <c r="M99" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="N99">
-        <v>2150</v>
+        <v>5250</v>
       </c>
       <c r="O99">
         <v>0</v>
@@ -7983,27 +7968,27 @@
         <v>0</v>
       </c>
       <c r="U99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="W99" t="s">
         <v>26</v>
       </c>
       <c r="X99" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C100" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="D100" s="2">
         <v>45687.25</v>
@@ -8012,7 +7997,7 @@
         <v>45687.25</v>
       </c>
       <c r="F100" s="2">
-        <v>45687.25</v>
+        <v>45687.26388888889</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -8027,13 +8012,16 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L100">
         <v>1</v>
       </c>
+      <c r="M100" t="s">
+        <v>136</v>
+      </c>
       <c r="N100">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="O100">
         <v>0</v>
@@ -8054,30 +8042,30 @@
         <v>28</v>
       </c>
       <c r="V100" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W100" t="s">
         <v>26</v>
       </c>
       <c r="X100" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D101" s="2">
-        <v>45687.25</v>
+        <v>45687.26388888889</v>
       </c>
       <c r="E101" s="2">
-        <v>45687.25</v>
+        <v>45687.26388888889</v>
       </c>
       <c r="F101" s="2">
         <v>45687.27777777778</v>
@@ -8092,16 +8080,16 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L101">
         <v>1</v>
       </c>
       <c r="M101" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N101">
         <v>5250</v>
@@ -8125,57 +8113,57 @@
         <v>28</v>
       </c>
       <c r="V101" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W101" t="s">
         <v>26</v>
       </c>
       <c r="X101" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="D102" s="2">
-        <v>45687.25</v>
+        <v>45687.27777777778</v>
       </c>
       <c r="E102" s="2">
-        <v>45687.25</v>
+        <v>45687.27777777778</v>
       </c>
       <c r="F102" s="2">
-        <v>45687.26388888889</v>
+        <v>45691.43038775305</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>15.51649707061363</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>8.764864864864865</v>
       </c>
       <c r="K102" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L102">
         <v>1</v>
       </c>
       <c r="M102" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N102">
-        <v>2100</v>
+        <v>5250</v>
       </c>
       <c r="O102">
         <v>0</v>
@@ -8196,54 +8184,54 @@
         <v>28</v>
       </c>
       <c r="V102" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W102" t="s">
         <v>26</v>
       </c>
       <c r="X102" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="D103" s="2">
-        <v>45687.26388888889</v>
+        <v>45687.27777777778</v>
       </c>
       <c r="E103" s="2">
-        <v>45687.26388888889</v>
+        <v>45687.27777777778</v>
       </c>
       <c r="F103" s="2">
-        <v>45687.27777777778</v>
+        <v>45687.30154692158</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>0.570459451125501</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>8.764864864864865</v>
       </c>
       <c r="K103" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L103">
         <v>1</v>
       </c>
       <c r="M103" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N103">
         <v>5250</v>
@@ -8267,54 +8255,54 @@
         <v>28</v>
       </c>
       <c r="V103" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W103" t="s">
         <v>26</v>
       </c>
       <c r="X103" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D104" s="2">
-        <v>45687.27777777778</v>
+        <v>45687.30154692158</v>
       </c>
       <c r="E104" s="2">
-        <v>45687.27777777778</v>
+        <v>45687.30154692158</v>
       </c>
       <c r="F104" s="2">
-        <v>45691.43038775305</v>
+        <v>45687.3110545791</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>15.51649707061363</v>
+        <v>0.2281837804502004</v>
       </c>
       <c r="J104">
         <v>8.764864864864865</v>
       </c>
       <c r="K104" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L104">
         <v>1</v>
       </c>
       <c r="M104" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N104">
         <v>5250</v>
@@ -8335,16 +8323,16 @@
         <v>0</v>
       </c>
       <c r="U104" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="V104" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W104" t="s">
         <v>26</v>
       </c>
       <c r="X104" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:24">
@@ -8355,37 +8343,37 @@
         <v>43</v>
       </c>
       <c r="C105" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D105" s="2">
-        <v>45687.27777777778</v>
+        <v>45687.3110545791</v>
       </c>
       <c r="E105" s="2">
-        <v>45687.27777777778</v>
+        <v>45687.3110545791</v>
       </c>
       <c r="F105" s="2">
-        <v>45687.30154692158</v>
+        <v>45687.32056223662</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>0.570459451125501</v>
+        <v>0.2281837804502004</v>
       </c>
       <c r="J105">
         <v>8.764864864864865</v>
       </c>
       <c r="K105" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L105">
         <v>1</v>
       </c>
       <c r="M105" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N105">
         <v>5250</v>
@@ -8406,16 +8394,16 @@
         <v>0</v>
       </c>
       <c r="U105" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="V105" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W105" t="s">
         <v>26</v>
       </c>
       <c r="X105" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:24">
@@ -8426,37 +8414,37 @@
         <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D106" s="2">
-        <v>45687.30154692158</v>
+        <v>45687.32056223662</v>
       </c>
       <c r="E106" s="2">
-        <v>45687.30154692158</v>
+        <v>45687.32056223662</v>
       </c>
       <c r="F106" s="2">
-        <v>45687.3110545791</v>
+        <v>45687.32531606538</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>0.2281837804502004</v>
+        <v>0.1140918902251002</v>
       </c>
       <c r="J106">
         <v>8.764864864864865</v>
       </c>
       <c r="K106" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L106">
         <v>1</v>
       </c>
       <c r="M106" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N106">
         <v>5250</v>
@@ -8477,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="U106" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="V106" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W106" t="s">
         <v>26</v>
       </c>
       <c r="X106" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -8497,37 +8485,37 @@
         <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D107" s="2">
-        <v>45687.3110545791</v>
+        <v>45687.32531606538</v>
       </c>
       <c r="E107" s="2">
-        <v>45687.3110545791</v>
+        <v>45687.32531606538</v>
       </c>
       <c r="F107" s="2">
-        <v>45687.32056223662</v>
+        <v>45687.34433138042</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I107">
-        <v>0.2281837804502004</v>
+        <v>0.4563675609004008</v>
       </c>
       <c r="J107">
         <v>8.764864864864865</v>
       </c>
       <c r="K107" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L107">
         <v>1</v>
       </c>
       <c r="M107" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N107">
         <v>5250</v>
@@ -8548,16 +8536,16 @@
         <v>0</v>
       </c>
       <c r="U107" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V107" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W107" t="s">
         <v>26</v>
       </c>
       <c r="X107" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -8568,37 +8556,37 @@
         <v>43</v>
       </c>
       <c r="C108" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D108" s="2">
-        <v>45687.32056223662</v>
+        <v>45687.34433138042</v>
       </c>
       <c r="E108" s="2">
-        <v>45687.32056223662</v>
+        <v>45687.34433138042</v>
       </c>
       <c r="F108" s="2">
-        <v>45687.32531606538</v>
+        <v>45687.35383903794</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>0.1140918902251002</v>
+        <v>0.2281837804502004</v>
       </c>
       <c r="J108">
         <v>8.764864864864865</v>
       </c>
       <c r="K108" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L108">
         <v>1</v>
       </c>
       <c r="M108" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N108">
         <v>5250</v>
@@ -8619,16 +8607,16 @@
         <v>0</v>
       </c>
       <c r="U108" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V108" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W108" t="s">
         <v>26</v>
       </c>
       <c r="X108" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -8639,37 +8627,37 @@
         <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D109" s="2">
-        <v>45687.32531606538</v>
+        <v>45687.35383903794</v>
       </c>
       <c r="E109" s="2">
-        <v>45687.32531606538</v>
+        <v>45687.35383903794</v>
       </c>
       <c r="F109" s="2">
-        <v>45687.34433138042</v>
+        <v>45687.36810052421</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I109">
-        <v>0.4563675609004008</v>
+        <v>0.3422756706753006</v>
       </c>
       <c r="J109">
         <v>8.764864864864865</v>
       </c>
       <c r="K109" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L109">
         <v>1</v>
       </c>
       <c r="M109" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N109">
         <v>5250</v>
@@ -8690,16 +8678,16 @@
         <v>0</v>
       </c>
       <c r="U109" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="V109" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W109" t="s">
         <v>26</v>
       </c>
       <c r="X109" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -8710,37 +8698,37 @@
         <v>43</v>
       </c>
       <c r="C110" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D110" s="2">
-        <v>45687.34433138042</v>
+        <v>45687.36810052421</v>
       </c>
       <c r="E110" s="2">
-        <v>45687.34433138042</v>
+        <v>45687.36810052421</v>
       </c>
       <c r="F110" s="2">
-        <v>45687.35383903794</v>
+        <v>45687.38711583925</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I110">
-        <v>0.2281837804502004</v>
+        <v>0.4563675609004008</v>
       </c>
       <c r="J110">
         <v>8.764864864864865</v>
       </c>
       <c r="K110" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L110">
         <v>1</v>
       </c>
       <c r="M110" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N110">
         <v>5250</v>
@@ -8761,16 +8749,16 @@
         <v>0</v>
       </c>
       <c r="U110" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V110" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W110" t="s">
         <v>26</v>
       </c>
       <c r="X110" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -8781,37 +8769,37 @@
         <v>43</v>
       </c>
       <c r="C111" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D111" s="2">
-        <v>45687.35383903794</v>
+        <v>45687.38711583925</v>
       </c>
       <c r="E111" s="2">
-        <v>45687.35383903794</v>
+        <v>45687.77274128894</v>
       </c>
       <c r="F111" s="2">
-        <v>45687.36810052421</v>
+        <v>45687.82503340529</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>9.2550107925</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I111">
-        <v>0.3422756706753006</v>
+        <v>1.255010792476102</v>
       </c>
       <c r="J111">
         <v>8.764864864864865</v>
       </c>
       <c r="K111" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L111">
         <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N111">
         <v>5250</v>
@@ -8832,16 +8820,16 @@
         <v>0</v>
       </c>
       <c r="U111" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="V111" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W111" t="s">
         <v>26</v>
       </c>
       <c r="X111" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="1:24">
@@ -8852,37 +8840,37 @@
         <v>43</v>
       </c>
       <c r="C112" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D112" s="2">
-        <v>45687.36810052421</v>
+        <v>45687.82503340529</v>
       </c>
       <c r="E112" s="2">
-        <v>45687.36810052421</v>
+        <v>45687.82503340529</v>
       </c>
       <c r="F112" s="2">
-        <v>45687.38711583925</v>
+        <v>45687.82978723405</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0.4563675609004008</v>
+        <v>0.1140918902251002</v>
       </c>
       <c r="J112">
         <v>8.764864864864865</v>
       </c>
       <c r="K112" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L112">
         <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N112">
         <v>5250</v>
@@ -8903,16 +8891,16 @@
         <v>0</v>
       </c>
       <c r="U112" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V112" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W112" t="s">
         <v>26</v>
       </c>
       <c r="X112" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113" spans="1:24">
@@ -8923,37 +8911,37 @@
         <v>43</v>
       </c>
       <c r="C113" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="D113" s="2">
-        <v>45687.38711583925</v>
+        <v>45687.82978723405</v>
       </c>
       <c r="E113" s="2">
-        <v>45687.77274128894</v>
+        <v>45687.82978723405</v>
       </c>
       <c r="F113" s="2">
-        <v>45687.77274128894</v>
+        <v>45687.929617638</v>
       </c>
       <c r="G113">
-        <v>9.2550107925</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2.395929694727104</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>8.764864864864865</v>
       </c>
       <c r="K113" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L113">
         <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N113">
         <v>5250</v>
@@ -8974,16 +8962,16 @@
         <v>0</v>
       </c>
       <c r="U113" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="V113" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W113" t="s">
         <v>26</v>
       </c>
       <c r="X113" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -8994,37 +8982,37 @@
         <v>43</v>
       </c>
       <c r="C114" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D114" s="2">
-        <v>45687.77274128894</v>
+        <v>45687.929617638</v>
       </c>
       <c r="E114" s="2">
-        <v>45687.77274128894</v>
+        <v>45687.929617638</v>
       </c>
       <c r="F114" s="2">
-        <v>45687.82503340529</v>
+        <v>45687.93912529552</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>1.255010792476102</v>
+        <v>0.2281837804502004</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>8.764864864864865</v>
       </c>
       <c r="K114" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L114">
         <v>1</v>
       </c>
       <c r="M114" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N114">
         <v>5250</v>
@@ -9045,16 +9033,16 @@
         <v>0</v>
       </c>
       <c r="U114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="V114" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W114" t="s">
         <v>26</v>
       </c>
       <c r="X114" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:24">
@@ -9065,37 +9053,37 @@
         <v>43</v>
       </c>
       <c r="C115" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D115" s="2">
-        <v>45687.82503340529</v>
+        <v>45687.93912529552</v>
       </c>
       <c r="E115" s="2">
-        <v>45687.82503340529</v>
+        <v>45687.93912529552</v>
       </c>
       <c r="F115" s="2">
-        <v>45687.82978723405</v>
+        <v>45687.96764826808</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I115">
-        <v>0.1140918902251002</v>
+        <v>0.6845513413506013</v>
       </c>
       <c r="J115">
         <v>8.764864864864865</v>
       </c>
       <c r="K115" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L115">
         <v>1</v>
       </c>
       <c r="M115" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N115">
         <v>5250</v>
@@ -9116,16 +9104,16 @@
         <v>0</v>
       </c>
       <c r="U115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V115" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W115" t="s">
         <v>26</v>
       </c>
       <c r="X115" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="1:24">
@@ -9136,37 +9124,37 @@
         <v>43</v>
       </c>
       <c r="C116" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D116" s="2">
-        <v>45687.82978723405</v>
+        <v>45687.96764826808</v>
       </c>
       <c r="E116" s="2">
-        <v>45687.82978723405</v>
+        <v>45687.96764826808</v>
       </c>
       <c r="F116" s="2">
-        <v>45687.929617638</v>
+        <v>45688.01994038443</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I116">
-        <v>2.395929694727104</v>
+        <v>1.255010792476102</v>
       </c>
       <c r="J116">
         <v>8.764864864864865</v>
       </c>
       <c r="K116" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="M116" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N116">
         <v>5250</v>
@@ -9187,16 +9175,16 @@
         <v>0</v>
       </c>
       <c r="U116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V116" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W116" t="s">
         <v>26</v>
       </c>
       <c r="X116" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="117" spans="1:24">
@@ -9207,37 +9195,37 @@
         <v>43</v>
       </c>
       <c r="C117" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D117" s="2">
-        <v>45687.929617638</v>
+        <v>45688.01994038443</v>
       </c>
       <c r="E117" s="2">
-        <v>45687.929617638</v>
+        <v>45688.01994038443</v>
       </c>
       <c r="F117" s="2">
-        <v>45687.93912529552</v>
+        <v>45688.03420187071</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>0.2281837804502004</v>
+        <v>0.3422756706753006</v>
       </c>
       <c r="J117">
         <v>8.764864864864865</v>
       </c>
       <c r="K117" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L117">
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N117">
         <v>5250</v>
@@ -9258,16 +9246,16 @@
         <v>0</v>
       </c>
       <c r="U117" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V117" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W117" t="s">
         <v>26</v>
       </c>
       <c r="X117" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:24">
@@ -9278,37 +9266,37 @@
         <v>43</v>
       </c>
       <c r="C118" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D118" s="2">
-        <v>45687.93912529552</v>
+        <v>45688.03420187071</v>
       </c>
       <c r="E118" s="2">
-        <v>45687.93912529552</v>
+        <v>45688.03420187071</v>
       </c>
       <c r="F118" s="2">
-        <v>45687.96764826808</v>
+        <v>45688.04846335698</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0.6845513413506013</v>
+        <v>0.3422756706753006</v>
       </c>
       <c r="J118">
         <v>8.764864864864865</v>
       </c>
       <c r="K118" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L118">
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N118">
         <v>5250</v>
@@ -9329,16 +9317,16 @@
         <v>0</v>
       </c>
       <c r="U118" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V118" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W118" t="s">
         <v>26</v>
       </c>
       <c r="X118" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="1:24">
@@ -9349,37 +9337,37 @@
         <v>43</v>
       </c>
       <c r="C119" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D119" s="2">
-        <v>45687.96764826808</v>
+        <v>45688.04846335698</v>
       </c>
       <c r="E119" s="2">
-        <v>45687.96764826808</v>
+        <v>45688.04846335698</v>
       </c>
       <c r="F119" s="2">
-        <v>45688.01994038443</v>
+        <v>45688.11501695961</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I119">
-        <v>1.255010792476102</v>
+        <v>1.597286463151403</v>
       </c>
       <c r="J119">
         <v>8.764864864864865</v>
       </c>
       <c r="K119" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L119">
         <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N119">
         <v>5250</v>
@@ -9400,16 +9388,16 @@
         <v>0</v>
       </c>
       <c r="U119" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V119" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W119" t="s">
         <v>26</v>
       </c>
       <c r="X119" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="120" spans="1:24">
@@ -9420,37 +9408,37 @@
         <v>43</v>
       </c>
       <c r="C120" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D120" s="2">
-        <v>45688.01994038443</v>
+        <v>45688.11501695961</v>
       </c>
       <c r="E120" s="2">
-        <v>45688.01994038443</v>
+        <v>45688.11501695961</v>
       </c>
       <c r="F120" s="2">
-        <v>45688.03420187071</v>
+        <v>45688.12452461713</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>0.3422756706753006</v>
+        <v>0.2281837804502004</v>
       </c>
       <c r="J120">
         <v>8.764864864864865</v>
       </c>
       <c r="K120" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L120">
         <v>1</v>
       </c>
       <c r="M120" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N120">
         <v>5250</v>
@@ -9471,16 +9459,16 @@
         <v>0</v>
       </c>
       <c r="U120" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V120" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W120" t="s">
         <v>26</v>
       </c>
       <c r="X120" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121" spans="1:24">
@@ -9491,37 +9479,37 @@
         <v>43</v>
       </c>
       <c r="C121" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D121" s="2">
-        <v>45688.03420187071</v>
+        <v>45688.12452461713</v>
       </c>
       <c r="E121" s="2">
-        <v>45688.03420187071</v>
+        <v>45688.12452461713</v>
       </c>
       <c r="F121" s="2">
-        <v>45688.04846335698</v>
+        <v>45688.13403227465</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>0.3422756706753006</v>
+        <v>0.2281837804502004</v>
       </c>
       <c r="J121">
         <v>8.764864864864865</v>
       </c>
       <c r="K121" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L121">
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N121">
         <v>5250</v>
@@ -9542,16 +9530,16 @@
         <v>0</v>
       </c>
       <c r="U121" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V121" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W121" t="s">
         <v>26</v>
       </c>
       <c r="X121" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="122" spans="1:24">
@@ -9562,37 +9550,37 @@
         <v>43</v>
       </c>
       <c r="C122" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D122" s="2">
-        <v>45688.04846335698</v>
+        <v>45688.13403227465</v>
       </c>
       <c r="E122" s="2">
-        <v>45688.04846335698</v>
+        <v>45688.13403227465</v>
       </c>
       <c r="F122" s="2">
-        <v>45688.11501695961</v>
+        <v>45688.14353993218</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>1.597286463151403</v>
+        <v>0.2281837804502004</v>
       </c>
       <c r="J122">
         <v>8.764864864864865</v>
       </c>
       <c r="K122" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L122">
         <v>1</v>
       </c>
       <c r="M122" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N122">
         <v>5250</v>
@@ -9613,16 +9601,16 @@
         <v>0</v>
       </c>
       <c r="U122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V122" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W122" t="s">
         <v>26</v>
       </c>
       <c r="X122" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="123" spans="1:24">
@@ -9633,37 +9621,37 @@
         <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D123" s="2">
-        <v>45688.11501695961</v>
+        <v>45688.14353993218</v>
       </c>
       <c r="E123" s="2">
-        <v>45688.11501695961</v>
+        <v>45688.14353993218</v>
       </c>
       <c r="F123" s="2">
-        <v>45688.12452461713</v>
+        <v>45688.1768167335</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I123">
-        <v>0.2281837804502004</v>
+        <v>0.7986432315757015</v>
       </c>
       <c r="J123">
         <v>8.764864864864865</v>
       </c>
       <c r="K123" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L123">
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N123">
         <v>5250</v>
@@ -9684,16 +9672,16 @@
         <v>0</v>
       </c>
       <c r="U123" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V123" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W123" t="s">
         <v>26</v>
       </c>
       <c r="X123" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="124" spans="1:24">
@@ -9704,37 +9692,37 @@
         <v>43</v>
       </c>
       <c r="C124" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D124" s="2">
-        <v>45688.12452461713</v>
+        <v>45688.1768167335</v>
       </c>
       <c r="E124" s="2">
-        <v>45688.12452461713</v>
+        <v>45688.1768167335</v>
       </c>
       <c r="F124" s="2">
-        <v>45688.13403227465</v>
+        <v>45688.22435502109</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I124">
-        <v>0.2281837804502004</v>
+        <v>1.140918902251002</v>
       </c>
       <c r="J124">
         <v>8.764864864864865</v>
       </c>
       <c r="K124" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L124">
         <v>1</v>
       </c>
       <c r="M124" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N124">
         <v>5250</v>
@@ -9755,16 +9743,16 @@
         <v>0</v>
       </c>
       <c r="U124" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V124" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W124" t="s">
         <v>26</v>
       </c>
       <c r="X124" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:24">
@@ -9775,16 +9763,16 @@
         <v>43</v>
       </c>
       <c r="C125" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D125" s="2">
-        <v>45688.13403227465</v>
+        <v>45688.22435502109</v>
       </c>
       <c r="E125" s="2">
-        <v>45688.13403227465</v>
+        <v>45688.22435502109</v>
       </c>
       <c r="F125" s="2">
-        <v>45688.14353993218</v>
+        <v>45688.23386267861</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -9799,13 +9787,13 @@
         <v>8.764864864864865</v>
       </c>
       <c r="K125" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L125">
         <v>1</v>
       </c>
       <c r="M125" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N125">
         <v>5250</v>
@@ -9826,16 +9814,16 @@
         <v>0</v>
       </c>
       <c r="U125" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V125" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W125" t="s">
         <v>26</v>
       </c>
       <c r="X125" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="126" spans="1:24">
@@ -9846,37 +9834,37 @@
         <v>43</v>
       </c>
       <c r="C126" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D126" s="2">
-        <v>45688.14353993218</v>
+        <v>45688.23386267861</v>
       </c>
       <c r="E126" s="2">
-        <v>45688.14353993218</v>
+        <v>45688.23386267861</v>
       </c>
       <c r="F126" s="2">
-        <v>45688.1768167335</v>
+        <v>45688.24812416489</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I126">
-        <v>0.7986432315757015</v>
+        <v>0.3422756706753006</v>
       </c>
       <c r="J126">
         <v>8.764864864864865</v>
       </c>
       <c r="K126" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L126">
         <v>1</v>
       </c>
       <c r="M126" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N126">
         <v>5250</v>
@@ -9897,16 +9885,16 @@
         <v>0</v>
       </c>
       <c r="U126" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V126" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W126" t="s">
         <v>26</v>
       </c>
       <c r="X126" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="127" spans="1:24">
@@ -9917,37 +9905,37 @@
         <v>43</v>
       </c>
       <c r="C127" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D127" s="2">
-        <v>45688.1768167335</v>
+        <v>45688.24812416489</v>
       </c>
       <c r="E127" s="2">
-        <v>45688.1768167335</v>
+        <v>45688.24812416489</v>
       </c>
       <c r="F127" s="2">
-        <v>45688.22435502109</v>
+        <v>45688.25763182241</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>1.140918902251002</v>
+        <v>0.2281837804502004</v>
       </c>
       <c r="J127">
         <v>8.764864864864865</v>
       </c>
       <c r="K127" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L127">
         <v>1</v>
       </c>
       <c r="M127" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N127">
         <v>5250</v>
@@ -9968,16 +9956,16 @@
         <v>0</v>
       </c>
       <c r="U127" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V127" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W127" t="s">
         <v>26</v>
       </c>
       <c r="X127" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:24">
@@ -9988,37 +9976,37 @@
         <v>43</v>
       </c>
       <c r="C128" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D128" s="2">
-        <v>45688.22435502109</v>
+        <v>45688.25763182241</v>
       </c>
       <c r="E128" s="2">
-        <v>45688.22435502109</v>
+        <v>45688.25763182241</v>
       </c>
       <c r="F128" s="2">
-        <v>45688.23386267861</v>
+        <v>45688.26238565117</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>0.2281837804502004</v>
+        <v>0.1140918902251002</v>
       </c>
       <c r="J128">
         <v>8.764864864864865</v>
       </c>
       <c r="K128" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L128">
         <v>1</v>
       </c>
       <c r="M128" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N128">
         <v>5250</v>
@@ -10039,16 +10027,16 @@
         <v>0</v>
       </c>
       <c r="U128" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V128" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W128" t="s">
         <v>26</v>
       </c>
       <c r="X128" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" spans="1:24">
@@ -10059,37 +10047,37 @@
         <v>43</v>
       </c>
       <c r="C129" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D129" s="2">
-        <v>45688.23386267861</v>
+        <v>45688.26238565117</v>
       </c>
       <c r="E129" s="2">
-        <v>45688.23386267861</v>
+        <v>45688.26238565117</v>
       </c>
       <c r="F129" s="2">
-        <v>45688.24812416489</v>
+        <v>45688.26713947993</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0.3422756706753006</v>
+        <v>0.1140918902251002</v>
       </c>
       <c r="J129">
         <v>8.764864864864865</v>
       </c>
       <c r="K129" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L129">
         <v>1</v>
       </c>
       <c r="M129" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N129">
         <v>5250</v>
@@ -10110,16 +10098,16 @@
         <v>0</v>
       </c>
       <c r="U129" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V129" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W129" t="s">
         <v>26</v>
       </c>
       <c r="X129" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -10130,16 +10118,16 @@
         <v>43</v>
       </c>
       <c r="C130" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D130" s="2">
-        <v>45688.24812416489</v>
+        <v>45688.26713947993</v>
       </c>
       <c r="E130" s="2">
-        <v>45688.24812416489</v>
+        <v>45688.26713947993</v>
       </c>
       <c r="F130" s="2">
-        <v>45688.25763182241</v>
+        <v>45688.27664713746</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -10154,13 +10142,13 @@
         <v>8.764864864864865</v>
       </c>
       <c r="K130" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L130">
         <v>1</v>
       </c>
       <c r="M130" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N130">
         <v>5250</v>
@@ -10181,16 +10169,16 @@
         <v>0</v>
       </c>
       <c r="U130" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V130" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W130" t="s">
         <v>26</v>
       </c>
       <c r="X130" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="1:24">
@@ -10201,16 +10189,16 @@
         <v>43</v>
       </c>
       <c r="C131" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D131" s="2">
-        <v>45688.25763182241</v>
+        <v>45688.27664713746</v>
       </c>
       <c r="E131" s="2">
-        <v>45688.25763182241</v>
+        <v>45688.27664713746</v>
       </c>
       <c r="F131" s="2">
-        <v>45688.26238565117</v>
+        <v>45688.28140096622</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -10225,13 +10213,13 @@
         <v>8.764864864864865</v>
       </c>
       <c r="K131" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L131">
         <v>1</v>
       </c>
       <c r="M131" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N131">
         <v>5250</v>
@@ -10252,16 +10240,16 @@
         <v>0</v>
       </c>
       <c r="U131" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V131" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W131" t="s">
         <v>26</v>
       </c>
       <c r="X131" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:24">
@@ -10272,37 +10260,37 @@
         <v>43</v>
       </c>
       <c r="C132" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D132" s="2">
-        <v>45688.26238565117</v>
+        <v>45688.28140096622</v>
       </c>
       <c r="E132" s="2">
-        <v>45688.26238565117</v>
+        <v>45688.28140096622</v>
       </c>
       <c r="F132" s="2">
-        <v>45688.26713947993</v>
+        <v>45688.29090862374</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0.1140918902251002</v>
+        <v>0.2281837804502004</v>
       </c>
       <c r="J132">
         <v>8.764864864864865</v>
       </c>
       <c r="K132" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L132">
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N132">
         <v>5250</v>
@@ -10323,16 +10311,16 @@
         <v>0</v>
       </c>
       <c r="U132" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V132" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W132" t="s">
         <v>26</v>
       </c>
       <c r="X132" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="133" spans="1:24">
@@ -10343,37 +10331,37 @@
         <v>43</v>
       </c>
       <c r="C133" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D133" s="2">
-        <v>45688.26713947993</v>
+        <v>45688.29090862374</v>
       </c>
       <c r="E133" s="2">
-        <v>45688.26713947993</v>
+        <v>45688.29090862374</v>
       </c>
       <c r="F133" s="2">
-        <v>45688.27664713746</v>
+        <v>45688.2956624525</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>0.2281837804502004</v>
+        <v>0.1140918902251002</v>
       </c>
       <c r="J133">
         <v>8.764864864864865</v>
       </c>
       <c r="K133" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L133">
         <v>1</v>
       </c>
       <c r="M133" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N133">
         <v>5250</v>
@@ -10394,16 +10382,16 @@
         <v>0</v>
       </c>
       <c r="U133" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V133" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W133" t="s">
         <v>26</v>
       </c>
       <c r="X133" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="134" spans="1:24">
@@ -10414,16 +10402,16 @@
         <v>43</v>
       </c>
       <c r="C134" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D134" s="2">
-        <v>45688.27664713746</v>
+        <v>45688.2956624525</v>
       </c>
       <c r="E134" s="2">
-        <v>45688.27664713746</v>
+        <v>45688.2956624525</v>
       </c>
       <c r="F134" s="2">
-        <v>45688.28140096622</v>
+        <v>45688.30041628126</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -10438,13 +10426,13 @@
         <v>8.764864864864865</v>
       </c>
       <c r="K134" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L134">
         <v>1</v>
       </c>
       <c r="M134" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N134">
         <v>5250</v>
@@ -10465,16 +10453,16 @@
         <v>0</v>
       </c>
       <c r="U134" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V134" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W134" t="s">
         <v>26</v>
       </c>
       <c r="X134" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="135" spans="1:24">
@@ -10485,16 +10473,16 @@
         <v>43</v>
       </c>
       <c r="C135" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D135" s="2">
-        <v>45688.28140096622</v>
+        <v>45688.30041628126</v>
       </c>
       <c r="E135" s="2">
-        <v>45688.28140096622</v>
+        <v>45688.30041628126</v>
       </c>
       <c r="F135" s="2">
-        <v>45688.29090862374</v>
+        <v>45688.30992393878</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -10509,13 +10497,13 @@
         <v>8.764864864864865</v>
       </c>
       <c r="K135" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L135">
         <v>1</v>
       </c>
       <c r="M135" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N135">
         <v>5250</v>
@@ -10536,60 +10524,60 @@
         <v>0</v>
       </c>
       <c r="U135" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V135" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W135" t="s">
         <v>26</v>
       </c>
       <c r="X135" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C136" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D136" s="2">
-        <v>45688.29090862374</v>
+        <v>45691.06580441972</v>
       </c>
       <c r="E136" s="2">
-        <v>45688.29090862374</v>
+        <v>45691.06580441972</v>
       </c>
       <c r="F136" s="2">
-        <v>45688.2956624525</v>
+        <v>45691.28455441972</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>0.1140918902251002</v>
+        <v>5.25</v>
       </c>
       <c r="J136">
-        <v>8.764864864864865</v>
+        <v>600</v>
       </c>
       <c r="K136" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L136">
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="N136">
-        <v>5250</v>
+        <v>3150</v>
       </c>
       <c r="O136">
         <v>0</v>
@@ -10607,60 +10595,60 @@
         <v>0</v>
       </c>
       <c r="U136" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="V136" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W136" t="s">
         <v>26</v>
       </c>
       <c r="X136" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C137" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D137" s="2">
-        <v>45688.2956624525</v>
+        <v>45691.28455441972</v>
       </c>
       <c r="E137" s="2">
-        <v>45688.2956624525</v>
+        <v>45691.28455441972</v>
       </c>
       <c r="F137" s="2">
-        <v>45688.30041628126</v>
+        <v>45691.43038775305</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>0.1140918902251002</v>
+        <v>3.5</v>
       </c>
       <c r="J137">
-        <v>8.764864864864865</v>
+        <v>600</v>
       </c>
       <c r="K137" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L137">
         <v>1</v>
       </c>
       <c r="M137" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="N137">
-        <v>5250</v>
+        <v>2100</v>
       </c>
       <c r="O137">
         <v>0</v>
@@ -10678,229 +10666,16 @@
         <v>0</v>
       </c>
       <c r="U137" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="V137" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W137" t="s">
         <v>26</v>
       </c>
       <c r="X137" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="138" spans="1:24">
-      <c r="A138" t="s">
-        <v>27</v>
-      </c>
-      <c r="B138" t="s">
-        <v>43</v>
-      </c>
-      <c r="C138" t="s">
-        <v>121</v>
-      </c>
-      <c r="D138" s="2">
-        <v>45688.30041628126</v>
-      </c>
-      <c r="E138" s="2">
-        <v>45688.30041628126</v>
-      </c>
-      <c r="F138" s="2">
-        <v>45688.30992393878</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>2</v>
-      </c>
-      <c r="I138">
-        <v>0.2281837804502004</v>
-      </c>
-      <c r="J138">
-        <v>8.764864864864865</v>
-      </c>
-      <c r="K138" t="s">
-        <v>132</v>
-      </c>
-      <c r="L138">
-        <v>1</v>
-      </c>
-      <c r="M138" t="s">
-        <v>141</v>
-      </c>
-      <c r="N138">
-        <v>5250</v>
-      </c>
-      <c r="O138">
-        <v>0</v>
-      </c>
-      <c r="P138">
-        <v>0</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138">
-        <v>0</v>
-      </c>
-      <c r="S138">
-        <v>0</v>
-      </c>
-      <c r="U138" t="s">
-        <v>192</v>
-      </c>
-      <c r="V138" t="s">
-        <v>196</v>
-      </c>
-      <c r="W138" t="s">
-        <v>26</v>
-      </c>
-      <c r="X138" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="139" spans="1:24">
-      <c r="A139" t="s">
-        <v>26</v>
-      </c>
-      <c r="B139" t="s">
-        <v>44</v>
-      </c>
-      <c r="C139" t="s">
-        <v>129</v>
-      </c>
-      <c r="D139" s="2">
-        <v>45691.06580441972</v>
-      </c>
-      <c r="E139" s="2">
-        <v>45691.06580441972</v>
-      </c>
-      <c r="F139" s="2">
-        <v>45691.28455441972</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>5.25</v>
-      </c>
-      <c r="J139">
-        <v>600</v>
-      </c>
-      <c r="K139" t="s">
-        <v>133</v>
-      </c>
-      <c r="L139">
-        <v>1</v>
-      </c>
-      <c r="M139" t="s">
-        <v>139</v>
-      </c>
-      <c r="N139">
-        <v>3150</v>
-      </c>
-      <c r="O139">
-        <v>0</v>
-      </c>
-      <c r="P139">
-        <v>0</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
-        <v>0</v>
-      </c>
-      <c r="S139">
-        <v>0</v>
-      </c>
-      <c r="U139" t="s">
-        <v>29</v>
-      </c>
-      <c r="V139" t="s">
-        <v>196</v>
-      </c>
-      <c r="W139" t="s">
-        <v>26</v>
-      </c>
-      <c r="X139" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="140" spans="1:24">
-      <c r="A140" t="s">
-        <v>26</v>
-      </c>
-      <c r="B140" t="s">
-        <v>44</v>
-      </c>
-      <c r="C140" t="s">
-        <v>130</v>
-      </c>
-      <c r="D140" s="2">
-        <v>45691.28455441972</v>
-      </c>
-      <c r="E140" s="2">
-        <v>45691.28455441972</v>
-      </c>
-      <c r="F140" s="2">
-        <v>45691.43038775305</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>3.5</v>
-      </c>
-      <c r="J140">
-        <v>600</v>
-      </c>
-      <c r="K140" t="s">
-        <v>133</v>
-      </c>
-      <c r="L140">
-        <v>1</v>
-      </c>
-      <c r="M140" t="s">
-        <v>140</v>
-      </c>
-      <c r="N140">
-        <v>2100</v>
-      </c>
-      <c r="O140">
-        <v>0</v>
-      </c>
-      <c r="P140">
-        <v>0</v>
-      </c>
-      <c r="Q140">
-        <v>0</v>
-      </c>
-      <c r="R140">
-        <v>0</v>
-      </c>
-      <c r="S140">
-        <v>0</v>
-      </c>
-      <c r="U140" t="s">
-        <v>29</v>
-      </c>
-      <c r="V140" t="s">
-        <v>196</v>
-      </c>
-      <c r="W140" t="s">
-        <v>26</v>
-      </c>
-      <c r="X140" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
